--- a/biology/Histoire de la zoologie et de la botanique/George_Robert_Waterhouse/George_Robert_Waterhouse.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Robert_Waterhouse/George_Robert_Waterhouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Robert Waterhouse est un naturaliste britannique, né le 6 mars 1810 à Somers Town et mort le 21 janvier 1888 à Putney.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Waterhouse devient le conservateur du muséum du Zoological Society of London en 1836. Charles Darwin (1809-1882) lui confie les mammifères et les coléoptères qu’il a récoltés durant son voyage à bord du Beagle.
 En 1843, il devient conservateur-assistant au département de minéralogie et de géologie au British Museum, puis conservateur en 1851 après la mort de Charles Konig (1774-1851). En 1857, à la suite de la restructuration du département, il devient conservateur de la géologie, poste qu’il conserve jusqu’en 1880.
